--- a/Ambil_Data/Sensor_Ultrasonik/data_processing/data_by_distance.xlsx
+++ b/Ambil_Data/Sensor_Ultrasonik/data_processing/data_by_distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rionaldy\Documents\Code\Arduino\skripsi-aromaterapi-s1\Ambil_Data\Sensor_Ultrasonik\data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA8951-774F-4A78-B8DA-4880B5464A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E506B-7BEC-421E-B23A-ED1A20AF5776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{E3BF58B9-B0CA-4B07-9B26-0643BAB7770C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,6 +180,7889 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Sensor Accuracy (in cm)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.2 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 9.2 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 9 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.2 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 8.2 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.8 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 7.8 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.4 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 7.4 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 7 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 6.5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 6 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 5.5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference 5 cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-B5BE-4C43-9AB2-00550E163C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="298089744"/>
+        <c:axId val="298092040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298089744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298092040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298092040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.5"/>
+          <c:min val="4.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298089744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7444642412399179E-2"/>
+          <c:y val="0.82556478130678412"/>
+          <c:w val="0.62871161177845469"/>
+          <c:h val="0.16454646843139764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3AB8F4-F368-4C06-98DC-B09DD38AE840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.01451</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07591</cdr:x>
+      <cdr:y>0.04461</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E55C4A3-A6FB-4AFE-B569-05B2149A5974}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="118301"/>
+          <a:ext cx="990600" cy="245383"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92482</cdr:x>
+      <cdr:y>0.85773</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.8933</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBF2348-97A5-4926-AAF9-583FE938FE55}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12068175" y="6993410"/>
+          <a:ext cx="981075" cy="289998"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Itteration</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,8 +8364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D9BA3A-9C83-4A11-985A-884EE4FA259F}">
   <dimension ref="A1:T221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11378,5 +19262,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>